--- a/medicine/Pharmacie/1876_en_santé_et_médecine/1876_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1876_en_santé_et_médecine/1876_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1876_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1876_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1876 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1876_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1876_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Edward Hammond Clarke (en) et al. : A century of American medicine, 1776-1876 (« Cent ans de médecine aux États-Unis, 1776-1876 ».
-Cesare Lombroso : publication originale, en italien, de L'Homme criminel[1].
-Wilhelm Wundt (1832-1920) : Über den Einfluss der Philosophie auf die Erfahrungswissenschaften (« De l'influence de la philosophie sur les sciences expérimentales », discours de rentrée académique du 20 novembre 1875), Leipzig, 1876[2].</t>
+Cesare Lombroso : publication originale, en italien, de L'Homme criminel.
+Wilhelm Wundt (1832-1920) : Über den Einfluss der Philosophie auf die Erfahrungswissenschaften (« De l'influence de la philosophie sur les sciences expérimentales », discours de rentrée académique du 20 novembre 1875), Leipzig, 1876.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1876_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1876_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>18 mai : Maurice Favre (mort en 1954), dermatologue français.
 20 mai : Antoine Porot (mort en 1965), psychiatre français.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1876_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1876_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">28 février : John Thomas Perceval (né en 1803), officier de l'armée britannique enfermé dans un asile d'aliénés pendant trois ans et qui a passé le reste de sa vie à faire campagne pour la réforme des lois sur l'internement.
-6 novembre : Jean-Louis Lambert (né en 1806), médecin, chirurgien et homme politique français[3],[4].
+6 novembre : Jean-Louis Lambert (né en 1806), médecin, chirurgien et homme politique français,.
 Date à préciser
 Thomas Laycock (né en 1812), neurophysiologiste anglais.
 </t>
